--- a/Analysis/Output/Reg2sf_Rob.xlsx
+++ b/Analysis/Output/Reg2sf_Rob.xlsx
@@ -665,76 +665,76 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>1.31628006407768</v>
+        <v>0.48299254302646</v>
       </c>
       <c r="C2" t="n">
-        <v>15.2945255164341</v>
+        <v>15.2819914630691</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0860621705892951</v>
+        <v>0.0316053404553768</v>
       </c>
       <c r="E2" t="n">
-        <v>0.933022436575017</v>
+        <v>0.975364753519613</v>
       </c>
       <c r="F2" t="n">
-        <v>-9.17429475274593</v>
+        <v>-9.23905695102612</v>
       </c>
       <c r="G2" t="n">
-        <v>18.9808861610852</v>
+        <v>18.9498140283812</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.483343858389244</v>
+        <v>-0.487553964233568</v>
       </c>
       <c r="I2" t="n">
-        <v>0.641134187743027</v>
+        <v>0.638282489901588</v>
       </c>
       <c r="J2" t="n">
-        <v>12.9099592426402</v>
+        <v>12.909744885796</v>
       </c>
       <c r="K2" t="n">
-        <v>0.163975919241703</v>
+        <v>0.164461117419057</v>
       </c>
       <c r="L2" t="n">
-        <v>78.730824027952</v>
+        <v>78.4972465734936</v>
       </c>
       <c r="M2" t="n">
-        <v>0.00000000000000000143075833843583</v>
+        <v>0.00000000000000000148564350540412</v>
       </c>
       <c r="N2" t="n">
-        <v>13.1007007947792</v>
+        <v>13.1019130590371</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0780495638516297</v>
+        <v>0.0780815112225626</v>
       </c>
       <c r="P2" t="n">
-        <v>167.851044237521</v>
+        <v>167.797892918486</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0000000000000000000000110281522424625</v>
+        <v>0.000000000000000000000011331414139426</v>
       </c>
       <c r="R2" t="n">
-        <v>13.6908946679858</v>
+        <v>13.6914671462392</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0701560649881004</v>
+        <v>0.070081467642501</v>
       </c>
       <c r="T2" t="n">
-        <v>195.149124602527</v>
+        <v>195.36501741205</v>
       </c>
       <c r="U2" t="n">
-        <v>0.000000000000000000000000105564766187634</v>
+        <v>0.000000000000000000000000109401329727834</v>
       </c>
       <c r="V2" t="n">
-        <v>13.8685706275621</v>
+        <v>13.8689095730441</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0849390586813196</v>
+        <v>0.0849260618446988</v>
       </c>
       <c r="X2" t="n">
-        <v>163.276716776379</v>
+        <v>163.305695234116</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.000000000000000000000074967131502557</v>
+        <v>0.0000000000000000000000733450398103579</v>
       </c>
     </row>
     <row r="3">
@@ -742,76 +742,76 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>0.038112624365185</v>
+        <v>0.0398902978545232</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00954451810181399</v>
+        <v>0.0100086369576175</v>
       </c>
       <c r="D3" t="n">
-        <v>3.99314286574002</v>
+        <v>3.98558745046328</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00197508410790993</v>
+        <v>0.00200035722996199</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0465527187177518</v>
+        <v>0.0462926481395442</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0112000380504926</v>
+        <v>0.0111108614144886</v>
       </c>
       <c r="H3" t="n">
-        <v>4.15647862157972</v>
+        <v>4.16643196351802</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00148709609631617</v>
+        <v>0.00146142455506096</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0525349594083496</v>
+        <v>0.052215610933833</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0133895062954472</v>
+        <v>0.0133356573917856</v>
       </c>
       <c r="L3" t="n">
-        <v>3.9235919718872</v>
+        <v>3.9154883332558</v>
       </c>
       <c r="M3" t="n">
-        <v>0.00222761598708795</v>
+        <v>0.00225909248448491</v>
       </c>
       <c r="N3" t="n">
-        <v>0.050016768042072</v>
+        <v>0.0496945818159189</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0125723031163984</v>
+        <v>0.0125395741434033</v>
       </c>
       <c r="P3" t="n">
-        <v>3.97832979200395</v>
+        <v>3.96301989585999</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.002026881788645</v>
+        <v>0.00208149709061284</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0833278440070588</v>
+        <v>0.0830336898736764</v>
       </c>
       <c r="S3" t="n">
-        <v>0.019232413156974</v>
+        <v>0.0190574708992349</v>
       </c>
       <c r="T3" t="n">
-        <v>4.33267751305782</v>
+        <v>4.35701517335178</v>
       </c>
       <c r="U3" t="n">
-        <v>0.00109993440352563</v>
+        <v>0.00105506647053284</v>
       </c>
       <c r="V3" t="n">
-        <v>0.141098131746814</v>
+        <v>0.14094194116219</v>
       </c>
       <c r="W3" t="n">
-        <v>0.00990345462530403</v>
+        <v>0.00986981808195438</v>
       </c>
       <c r="X3" t="n">
-        <v>14.2473648928827</v>
+        <v>14.2800951336563</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.00000000345011395307658</v>
+        <v>0.00000000331498147712645</v>
       </c>
     </row>
     <row r="4">
@@ -819,64 +819,64 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0000882233109113133</v>
+        <v>0.0000873016549501544</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0000443798155898681</v>
+        <v>0.0000471087169870857</v>
       </c>
       <c r="D4" t="n">
-        <v>1.98791522088827</v>
+        <v>1.85319534331803</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0654058968140441</v>
+        <v>0.0837229311916605</v>
       </c>
       <c r="F4" t="n">
-        <v>0.000172988421506152</v>
+        <v>0.000165191649341927</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0000753562346893586</v>
+        <v>0.000073140045200497</v>
       </c>
       <c r="H4" t="n">
-        <v>2.29560861445988</v>
+        <v>2.25856641035825</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0365799101667022</v>
+        <v>0.0393430306425153</v>
       </c>
       <c r="J4" t="n">
-        <v>0.000286302986676327</v>
+        <v>0.000279916668156579</v>
       </c>
       <c r="K4" t="n">
-        <v>0.000110792818234236</v>
+        <v>0.000110065044215747</v>
       </c>
       <c r="L4" t="n">
-        <v>2.58412947011629</v>
+        <v>2.54319316501516</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0207411831656547</v>
+        <v>0.0225443822427857</v>
       </c>
       <c r="N4" t="n">
-        <v>0.000254782674397542</v>
+        <v>0.000248926938874199</v>
       </c>
       <c r="O4" t="n">
-        <v>0.000129016407263431</v>
+        <v>0.000128275722489898</v>
       </c>
       <c r="P4" t="n">
-        <v>1.97480831935829</v>
+        <v>1.94056158127508</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0669188603924293</v>
+        <v>0.0713438610286704</v>
       </c>
       <c r="R4" t="n">
-        <v>0.00191632728340791</v>
+        <v>0.0019096108160116</v>
       </c>
       <c r="S4" t="n">
-        <v>0.000289111552150023</v>
+        <v>0.000289109347940731</v>
       </c>
       <c r="T4" t="n">
-        <v>6.6283317603771</v>
+        <v>6.60515071412731</v>
       </c>
       <c r="U4" t="n">
-        <v>0.00000905071345164572</v>
+        <v>0.00000958587636912236</v>
       </c>
       <c r="V4"/>
       <c r="W4"/>
@@ -888,64 +888,64 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0273097450092921</v>
+        <v>0.0299249354300275</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00688837272146322</v>
+        <v>0.00836508962316904</v>
       </c>
       <c r="D5" t="n">
-        <v>3.96461488272821</v>
+        <v>3.57735981060424</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00147376070187949</v>
+        <v>0.00313740349542404</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0312460707356085</v>
+        <v>0.0308560072932866</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00732183624374611</v>
+        <v>0.00722206539606317</v>
       </c>
       <c r="H5" t="n">
-        <v>4.26751837864403</v>
+        <v>4.27246301454243</v>
       </c>
       <c r="I5" t="n">
-        <v>0.000821776869189635</v>
+        <v>0.000814030943809061</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0311689256915869</v>
+        <v>0.0307365735122803</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0100517775070455</v>
+        <v>0.00998722641881562</v>
       </c>
       <c r="L5" t="n">
-        <v>3.10083720712481</v>
+        <v>3.07758853392705</v>
       </c>
       <c r="M5" t="n">
-        <v>0.00801042367910933</v>
+        <v>0.00838461735408509</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0293773447553408</v>
+        <v>0.0289271975685001</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0108609835431744</v>
+        <v>0.010820795803804</v>
       </c>
       <c r="P5" t="n">
-        <v>2.70485123548531</v>
+        <v>2.67329668658295</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0173831045705344</v>
+        <v>0.018480269027745</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0953286685082778</v>
+        <v>0.0956890174949483</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0169555556954311</v>
+        <v>0.0168921911664395</v>
       </c>
       <c r="T5" t="n">
-        <v>5.62226742789477</v>
+        <v>5.66468947409605</v>
       </c>
       <c r="U5" t="n">
-        <v>0.000068895382974526</v>
+        <v>0.0000639534538111786</v>
       </c>
       <c r="V5"/>
       <c r="W5"/>
@@ -957,64 +957,64 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0361237218095742</v>
+        <v>0.0362329311500185</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00809462268592635</v>
+        <v>0.0114640657023731</v>
       </c>
       <c r="D6" t="n">
-        <v>4.46268136405918</v>
+        <v>3.1605655524565</v>
       </c>
       <c r="E6" t="n">
-        <v>0.000601433857893233</v>
+        <v>0.00730755053690581</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0414209587210277</v>
+        <v>0.0411968286378229</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00852214089600646</v>
+        <v>0.00848642751190011</v>
       </c>
       <c r="H6" t="n">
-        <v>4.86039355913933</v>
+        <v>4.85443710914335</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00028923883638519</v>
+        <v>0.000292460935621247</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0373309085288416</v>
+        <v>0.0372643299006651</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0113063115588418</v>
+        <v>0.0112688321527341</v>
       </c>
       <c r="L6" t="n">
-        <v>3.30177603319695</v>
+        <v>3.3068493163796</v>
       </c>
       <c r="M6" t="n">
-        <v>0.00555359032039483</v>
+        <v>0.00549946466754441</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0363892326025373</v>
+        <v>0.0364597012306558</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0113942015492955</v>
+        <v>0.0113381242381602</v>
       </c>
       <c r="P6" t="n">
-        <v>3.19366235932408</v>
+        <v>3.21567311001454</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.00685032105674046</v>
+        <v>0.00656326124265935</v>
       </c>
       <c r="R6" t="n">
-        <v>0.131155302314591</v>
+        <v>0.131430412143611</v>
       </c>
       <c r="S6" t="n">
-        <v>0.020402247307512</v>
+        <v>0.0204191579705385</v>
       </c>
       <c r="T6" t="n">
-        <v>6.4284733116778</v>
+        <v>6.43662252543636</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0000197993210192378</v>
+        <v>0.0000195474264121001</v>
       </c>
       <c r="V6"/>
       <c r="W6"/>
@@ -1026,64 +1026,64 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0124721135475974</v>
+        <v>0.011643809375128</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0096416471021022</v>
+        <v>0.0121398410324269</v>
       </c>
       <c r="D7" t="n">
-        <v>1.29356669203108</v>
+        <v>0.9591401851166</v>
       </c>
       <c r="E7" t="n">
-        <v>0.217788983564677</v>
+        <v>0.354588605086385</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0171147089249062</v>
+        <v>0.0168705333564933</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00921321841965011</v>
+        <v>0.00914087691864704</v>
       </c>
       <c r="H7" t="n">
-        <v>1.85762544046537</v>
+        <v>1.84561432197802</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0854596240083466</v>
+        <v>0.0872827415242003</v>
       </c>
       <c r="J7" t="n">
-        <v>0.00779854855903667</v>
+        <v>0.00754623987519386</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0104877978002105</v>
+        <v>0.0104285893496923</v>
       </c>
       <c r="L7" t="n">
-        <v>0.743583038841592</v>
+        <v>0.723610799327959</v>
       </c>
       <c r="M7" t="n">
-        <v>0.470045839516084</v>
+        <v>0.48182268801735</v>
       </c>
       <c r="N7" t="n">
-        <v>0.00927603348606949</v>
+        <v>0.00908774372581558</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0100196791949532</v>
+        <v>0.00996661571680525</v>
       </c>
       <c r="P7" t="n">
-        <v>0.925781485173872</v>
+        <v>0.911818412993715</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.371019801950522</v>
+        <v>0.378060571369492</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0888328772750045</v>
+        <v>0.0886872059307484</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0148966206268169</v>
+        <v>0.0148329083590822</v>
       </c>
       <c r="T7" t="n">
-        <v>5.9632905677337</v>
+        <v>5.97908405983276</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0000422479912485656</v>
+        <v>0.0000411365963591276</v>
       </c>
       <c r="V7"/>
       <c r="W7"/>
@@ -1095,64 +1095,64 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.00135471616953629</v>
+        <v>-0.0027426360798211</v>
       </c>
       <c r="C8" t="n">
-        <v>0.014996517355961</v>
+        <v>0.0171181736848491</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0903353850350997</v>
+        <v>-0.160217797196937</v>
       </c>
       <c r="E8" t="n">
-        <v>0.929553535651349</v>
+        <v>0.875452988335755</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.000197768155845243</v>
+        <v>-0.000476391284104068</v>
       </c>
       <c r="G8" t="n">
-        <v>0.014962994707715</v>
+        <v>0.0149315424444355</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.0132171506913167</v>
+        <v>-0.0319050282900681</v>
       </c>
       <c r="I8" t="n">
-        <v>0.989678010961169</v>
+        <v>0.97508745155987</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.0142900153683862</v>
+        <v>-0.0145512090572991</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0159596330294329</v>
+        <v>0.0159616089887813</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.89538495916744</v>
+        <v>-0.911637985088255</v>
       </c>
       <c r="M8" t="n">
-        <v>0.388698861125911</v>
+        <v>0.380428776546647</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.0104334902505201</v>
+        <v>-0.0106444467775589</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0148290102657441</v>
+        <v>0.0148271117655049</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.703586420371025</v>
+        <v>-0.717904265234115</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.495527460121589</v>
+        <v>0.486979369272552</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0545648198609999</v>
+        <v>0.0543396521947114</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0231809044294674</v>
+        <v>0.0231868447123244</v>
       </c>
       <c r="T8" t="n">
-        <v>2.35386932494478</v>
+        <v>2.34355527321182</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0370694317086665</v>
+        <v>0.0377639005577395</v>
       </c>
       <c r="V8"/>
       <c r="W8"/>
@@ -1164,64 +1164,64 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>0.125698029132443</v>
+        <v>0.124983315142867</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0149812196708898</v>
+        <v>0.0175419479617115</v>
       </c>
       <c r="D9" t="n">
-        <v>8.39037354059288</v>
+        <v>7.12482532816003</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00000259115749752274</v>
+        <v>0.0000133025859553438</v>
       </c>
       <c r="F9" t="n">
-        <v>0.12230014891756</v>
+        <v>0.122298378428018</v>
       </c>
       <c r="G9" t="n">
-        <v>0.016131261007094</v>
+        <v>0.0160629704918945</v>
       </c>
       <c r="H9" t="n">
-        <v>7.58156159420988</v>
+        <v>7.61368381332273</v>
       </c>
       <c r="I9" t="n">
-        <v>0.00000720644343034946</v>
+        <v>0.00000689850826745828</v>
       </c>
       <c r="J9" t="n">
-        <v>0.109618643660678</v>
+        <v>0.109701556039051</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0178848102924696</v>
+        <v>0.0175786797687316</v>
       </c>
       <c r="L9" t="n">
-        <v>6.12914768835055</v>
+        <v>6.24060267792037</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0000550824890161603</v>
+        <v>0.0000466056288345263</v>
       </c>
       <c r="N9" t="n">
-        <v>0.112808471404679</v>
+        <v>0.113029420439042</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0171192967794573</v>
+        <v>0.0168091363711471</v>
       </c>
       <c r="P9" t="n">
-        <v>6.58955054392455</v>
+        <v>6.7242848141239</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0000283517404608771</v>
+        <v>0.0000233777398850134</v>
       </c>
       <c r="R9" t="n">
-        <v>0.218487934102737</v>
+        <v>0.21930018331464</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0284836461670983</v>
+        <v>0.0282439888098072</v>
       </c>
       <c r="T9" t="n">
-        <v>7.67064486129988</v>
+        <v>7.76449051836798</v>
       </c>
       <c r="U9" t="n">
-        <v>0.00000649644214988627</v>
+        <v>0.00000574679215056946</v>
       </c>
       <c r="V9"/>
       <c r="W9"/>
@@ -1233,64 +1233,64 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>0.168711742883658</v>
+        <v>0.167303123141915</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0167644724999943</v>
+        <v>0.0182486997972214</v>
       </c>
       <c r="D10" t="n">
-        <v>10.0636475668241</v>
+        <v>9.16794757988121</v>
       </c>
       <c r="E10" t="n">
-        <v>0.000000396740946817971</v>
+        <v>0.00000106426115062586</v>
       </c>
       <c r="F10" t="n">
-        <v>0.167477077411112</v>
+        <v>0.166935957579694</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0174277760172229</v>
+        <v>0.0173404890811564</v>
       </c>
       <c r="H10" t="n">
-        <v>9.60977908171434</v>
+        <v>9.62694632189476</v>
       </c>
       <c r="I10" t="n">
-        <v>0.000000647709813732627</v>
+        <v>0.000000635992433785428</v>
       </c>
       <c r="J10" t="n">
-        <v>0.142019341761303</v>
+        <v>0.141561796621328</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0192631180081295</v>
+        <v>0.0189716017345963</v>
       </c>
       <c r="L10" t="n">
-        <v>7.37260404579192</v>
+        <v>7.46177358146717</v>
       </c>
       <c r="M10" t="n">
-        <v>0.00000965450094363039</v>
+        <v>0.00000858166233298904</v>
       </c>
       <c r="N10" t="n">
-        <v>0.139694473837328</v>
+        <v>0.139315277886364</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0191767573612305</v>
+        <v>0.0189015944365532</v>
       </c>
       <c r="P10" t="n">
-        <v>7.28457221447393</v>
+        <v>7.37055693126851</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0000108908567312927</v>
+        <v>0.000009712553991685</v>
       </c>
       <c r="R10" t="n">
-        <v>0.242870031350991</v>
+        <v>0.242497389364815</v>
       </c>
       <c r="S10" t="n">
-        <v>0.02653362751587</v>
+        <v>0.0263043499031878</v>
       </c>
       <c r="T10" t="n">
-        <v>9.15329165624745</v>
+        <v>9.21890828921143</v>
       </c>
       <c r="U10" t="n">
-        <v>0.00000108007739397607</v>
+        <v>0.00000100289276404592</v>
       </c>
       <c r="V10"/>
       <c r="W10"/>
@@ -1302,64 +1302,64 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>0.133790969634828</v>
+        <v>0.132319651089144</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0267551962795856</v>
+        <v>0.0288915080390014</v>
       </c>
       <c r="D11" t="n">
-        <v>5.00056019910089</v>
+        <v>4.57988038943908</v>
       </c>
       <c r="E11" t="n">
-        <v>0.000204056596523299</v>
+        <v>0.000447158581202406</v>
       </c>
       <c r="F11" t="n">
-        <v>0.133010460209136</v>
+        <v>0.132549571831071</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0275662556602529</v>
+        <v>0.0276407171360471</v>
       </c>
       <c r="H11" t="n">
-        <v>4.8251188644717</v>
+        <v>4.79544619550441</v>
       </c>
       <c r="I11" t="n">
-        <v>0.000282393065054397</v>
+        <v>0.000298440276629681</v>
       </c>
       <c r="J11" t="n">
-        <v>0.10264120631134</v>
+        <v>0.10225830678455</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0442367540831335</v>
+        <v>0.044024951685485</v>
       </c>
       <c r="L11" t="n">
-        <v>2.32026983983607</v>
+        <v>2.32273524148498</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0362126283454864</v>
+        <v>0.0360449447368732</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0319375186386358</v>
+        <v>0.032140959645784</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0409395391351287</v>
+        <v>0.0406661614760959</v>
       </c>
       <c r="P11" t="n">
-        <v>0.780114268829944</v>
+        <v>0.790361285135725</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.449261442110257</v>
+        <v>0.443462287492335</v>
       </c>
       <c r="R11" t="n">
-        <v>0.194557803149143</v>
+        <v>0.19460249367123</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0575491373546083</v>
+        <v>0.0572118354506209</v>
       </c>
       <c r="T11" t="n">
-        <v>3.38072492642783</v>
+        <v>3.40143769446429</v>
       </c>
       <c r="U11" t="n">
-        <v>0.00491929921676024</v>
+        <v>0.00472723985479283</v>
       </c>
       <c r="V11"/>
       <c r="W11"/>
@@ -1371,52 +1371,52 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.0315439574286724</v>
+        <v>-0.0318756566137239</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00536643979236643</v>
+        <v>0.00527391900544346</v>
       </c>
       <c r="D12" t="n">
-        <v>-5.87800453357225</v>
+        <v>-6.04401709256882</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0000243982991370926</v>
+        <v>0.0000176565845883243</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.0457592004920997</v>
+        <v>-0.0457325225423155</v>
       </c>
       <c r="G12" t="n">
-        <v>0.00787973467956223</v>
+        <v>0.00786184479492098</v>
       </c>
       <c r="H12" t="n">
-        <v>-5.80720066765521</v>
+        <v>-5.817021797716</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0000288283554559922</v>
+        <v>0.0000282964816395817</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.0708231774852214</v>
+        <v>-0.0707927584916441</v>
       </c>
       <c r="K12" t="n">
-        <v>0.00935347693513826</v>
+        <v>0.00935719170723408</v>
       </c>
       <c r="L12" t="n">
-        <v>-7.57185568279529</v>
+        <v>-7.56559881496432</v>
       </c>
       <c r="M12" t="n">
-        <v>0.00000141082436227766</v>
+        <v>0.00000142322155212485</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.0710196692712537</v>
+        <v>-0.0709922298116792</v>
       </c>
       <c r="O12" t="n">
-        <v>0.00938097711136568</v>
+        <v>0.00939272741259508</v>
       </c>
       <c r="P12" t="n">
-        <v>-7.57060468522076</v>
+        <v>-7.55821250774114</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.00000137926209545105</v>
+        <v>0.00000140391438846245</v>
       </c>
       <c r="R12"/>
       <c r="S12"/>
@@ -1432,52 +1432,52 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0639379060351005</v>
+        <v>0.0655730678056821</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00649213653710633</v>
+        <v>0.0063235574047688</v>
       </c>
       <c r="D13" t="n">
-        <v>9.84851530303749</v>
+        <v>10.3696485393224</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0000000490109636733553</v>
+        <v>0.0000000240935981579745</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0756160850460965</v>
+        <v>0.0758066138110886</v>
       </c>
       <c r="G13" t="n">
-        <v>0.00675216014842187</v>
+        <v>0.00668052503800465</v>
       </c>
       <c r="H13" t="n">
-        <v>11.1987991078336</v>
+        <v>11.3474035917588</v>
       </c>
       <c r="I13" t="n">
-        <v>0.00000000837175757560942</v>
+        <v>0.0000000069458018802771</v>
       </c>
       <c r="J13" t="n">
-        <v>0.103206468201688</v>
+        <v>0.103388293095848</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0152925815038005</v>
+        <v>0.0153213328037718</v>
       </c>
       <c r="L13" t="n">
-        <v>6.74879307826732</v>
+        <v>6.74799604055312</v>
       </c>
       <c r="M13" t="n">
-        <v>0.00000591715122200829</v>
+        <v>0.00000591534978897982</v>
       </c>
       <c r="N13" t="n">
-        <v>0.100701971142524</v>
+        <v>0.10086568170973</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0156521394283928</v>
+        <v>0.0156660585057333</v>
       </c>
       <c r="P13" t="n">
-        <v>6.43375121996756</v>
+        <v>6.43848493689822</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0000103014107609132</v>
+        <v>0.0000102025903787308</v>
       </c>
       <c r="R13"/>
       <c r="S13"/>
@@ -1493,52 +1493,52 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0379213479119332</v>
+        <v>0.0396798148263902</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00669216310557235</v>
+        <v>0.00667729119367239</v>
       </c>
       <c r="D14" t="n">
-        <v>5.66653073359155</v>
+        <v>5.9425017833567</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0000440546299850355</v>
+        <v>0.0000264523054429198</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0451021392236216</v>
+        <v>0.0453086609539317</v>
       </c>
       <c r="G14" t="n">
-        <v>0.00829407330560898</v>
+        <v>0.00823831471915777</v>
       </c>
       <c r="H14" t="n">
-        <v>5.43787564466312</v>
+        <v>5.49974873484364</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0000671921283940816</v>
+        <v>0.0000597279493788159</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0322083367485889</v>
+        <v>0.0323619583727149</v>
       </c>
       <c r="K14" t="n">
-        <v>0.00866562925399495</v>
+        <v>0.00859454419732927</v>
       </c>
       <c r="L14" t="n">
-        <v>3.71679145328546</v>
+        <v>3.76540717339859</v>
       </c>
       <c r="M14" t="n">
-        <v>0.00204770258463748</v>
+        <v>0.00185218190810751</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0296798551234931</v>
+        <v>0.0298254079631064</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0105511785442284</v>
+        <v>0.0104206563030722</v>
       </c>
       <c r="P14" t="n">
-        <v>2.8129421750453</v>
+        <v>2.86214294912629</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.0132284358357074</v>
+        <v>0.0119753313108009</v>
       </c>
       <c r="R14"/>
       <c r="S14"/>
@@ -1554,52 +1554,52 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.0432731661515677</v>
+        <v>-0.0440006547144579</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0084757268305637</v>
+        <v>0.00904960919134738</v>
       </c>
       <c r="D15" t="n">
-        <v>-5.10554044704738</v>
+        <v>-4.86216076121037</v>
       </c>
       <c r="E15" t="n">
-        <v>0.000115758664165856</v>
+        <v>0.000186640140667472</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.0499101610815342</v>
+        <v>-0.050017256298763</v>
       </c>
       <c r="G15" t="n">
-        <v>0.00949019166566514</v>
+        <v>0.00947254475690488</v>
       </c>
       <c r="H15" t="n">
-        <v>-5.25913098911434</v>
+        <v>-5.28023435965332</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0000863855502755484</v>
+        <v>0.0000827733964937073</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.040247856649213</v>
+        <v>-0.0404318240409851</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0226817131370661</v>
+        <v>0.0226071539480539</v>
       </c>
       <c r="L15" t="n">
-        <v>-1.77446281971712</v>
+        <v>-1.78845263467875</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0956861209892529</v>
+        <v>0.0933178681366009</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.0437372487375595</v>
+        <v>-0.0439185594835363</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0263472449298775</v>
+        <v>0.0262550858835085</v>
       </c>
       <c r="P15" t="n">
-        <v>-1.66003120455156</v>
+        <v>-1.6727638857629</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.117168018426265</v>
+        <v>0.11459481132327</v>
       </c>
       <c r="R15"/>
       <c r="S15"/>
@@ -1615,52 +1615,52 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.0700570846228398</v>
+        <v>-0.0730733857267982</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0139299156865414</v>
+        <v>0.0148307349625576</v>
       </c>
       <c r="D16" t="n">
-        <v>-5.02925403134541</v>
+        <v>-4.92715876261579</v>
       </c>
       <c r="E16" t="n">
-        <v>0.000218824840113145</v>
+        <v>0.000262512687005629</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.0906798388084878</v>
+        <v>-0.0901797925982939</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0172114519703523</v>
+        <v>0.0172275733544488</v>
       </c>
       <c r="H16" t="n">
-        <v>-5.26857576947542</v>
+        <v>-5.23461956846094</v>
       </c>
       <c r="I16" t="n">
-        <v>0.000143385846685488</v>
+        <v>0.000152124701893981</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.0415470442106576</v>
+        <v>-0.0413775606947006</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0412027450271687</v>
+        <v>0.0411929674799037</v>
       </c>
       <c r="L16" t="n">
-        <v>-1.0083562195495</v>
+        <v>-1.00448118273798</v>
       </c>
       <c r="M16" t="n">
-        <v>0.331555129051813</v>
+        <v>0.333347827029147</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.0311677718846437</v>
+        <v>-0.0309852988570111</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0448454943065373</v>
+        <v>0.0448479072402291</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.695003419331254</v>
+        <v>-0.690897318598111</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.499169169016867</v>
+        <v>0.501659496714461</v>
       </c>
       <c r="R16"/>
       <c r="S16"/>
@@ -1676,52 +1676,52 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>0.00018119942775097</v>
+        <v>0.000181682036801314</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00000931774641442433</v>
+        <v>0.00000999712551565577</v>
       </c>
       <c r="D17" t="n">
-        <v>19.4467009179886</v>
+        <v>18.1734276034441</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0000000000220233946244961</v>
+        <v>0.0000000000573577578256596</v>
       </c>
       <c r="F17" t="n">
-        <v>0.000199432304583313</v>
+        <v>0.000199158501244847</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0000120987450045093</v>
+        <v>0.0000120989548568134</v>
       </c>
       <c r="H17" t="n">
-        <v>16.4837183120219</v>
+        <v>16.4608020776846</v>
       </c>
       <c r="I17" t="n">
-        <v>0.000000000254509124255975</v>
+        <v>0.000000000252411420781858</v>
       </c>
       <c r="J17" t="n">
-        <v>0.000251180266702656</v>
+        <v>0.000250890471086545</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0000170575258464812</v>
+        <v>0.0000170440555310187</v>
       </c>
       <c r="L17" t="n">
-        <v>14.7254806449244</v>
+        <v>14.7201157981413</v>
       </c>
       <c r="M17" t="n">
-        <v>0.00000000105793833681466</v>
+        <v>0.00000000103275533915287</v>
       </c>
       <c r="N17" t="n">
-        <v>0.000258254232449307</v>
+        <v>0.000257983636079131</v>
       </c>
       <c r="O17" t="n">
-        <v>0.000016290896313327</v>
+        <v>0.0000162653095576739</v>
       </c>
       <c r="P17" t="n">
-        <v>15.8526717917932</v>
+        <v>15.860973021409</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.000000000350491739642105</v>
+        <v>0.000000000334526131981047</v>
       </c>
       <c r="R17"/>
       <c r="S17"/>
@@ -1737,52 +1737,52 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.000848371223976141</v>
+        <v>-0.000995502370235056</v>
       </c>
       <c r="C18" t="n">
-        <v>0.000917870629441954</v>
+        <v>0.000816030331561416</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.924281915951416</v>
+        <v>-1.21993304872655</v>
       </c>
       <c r="E18" t="n">
-        <v>0.370899477972289</v>
+        <v>0.242565060644111</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.0018200271720972</v>
+        <v>-0.00184286688638829</v>
       </c>
       <c r="G18" t="n">
-        <v>0.000914455449427726</v>
+        <v>0.000913319424561761</v>
       </c>
       <c r="H18" t="n">
-        <v>-1.99028522738444</v>
+        <v>-2.01776819459693</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0663368932030836</v>
+        <v>0.0630951208824002</v>
       </c>
       <c r="J18" t="n">
-        <v>0.00434817495858919</v>
+        <v>0.00432290972347869</v>
       </c>
       <c r="K18" t="n">
-        <v>0.00196485290653755</v>
+        <v>0.00196163766339312</v>
       </c>
       <c r="L18" t="n">
-        <v>2.21297733999412</v>
+        <v>2.20372487954844</v>
       </c>
       <c r="M18" t="n">
-        <v>0.044688940021476</v>
+        <v>0.0454656737907756</v>
       </c>
       <c r="N18" t="n">
-        <v>0.00422237832838243</v>
+        <v>0.00418937611520919</v>
       </c>
       <c r="O18" t="n">
-        <v>0.00185704500909626</v>
+        <v>0.00185638879197798</v>
       </c>
       <c r="P18" t="n">
-        <v>2.27370812645907</v>
+        <v>2.25673422146952</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.0408004690860394</v>
+        <v>0.0421083448986942</v>
       </c>
       <c r="R18"/>
       <c r="S18"/>
@@ -1798,52 +1798,52 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0186631322385095</v>
+        <v>0.0207099653869878</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0100108727008756</v>
+        <v>0.00909033678289246</v>
       </c>
       <c r="D19" t="n">
-        <v>1.86428624118626</v>
+        <v>2.27823961659627</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0840783612486653</v>
+        <v>0.0394777479507313</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0304194456395715</v>
+        <v>0.0306227208212103</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0108979365178941</v>
+        <v>0.0108904607902475</v>
       </c>
       <c r="H19" t="n">
-        <v>2.79130325173243</v>
+        <v>2.81188476879081</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0145298137511082</v>
+        <v>0.0139576686924312</v>
       </c>
       <c r="J19" t="n">
-        <v>0.00505095185607224</v>
+        <v>0.0053205917638592</v>
       </c>
       <c r="K19" t="n">
-        <v>0.021372599925515</v>
+        <v>0.0213680065509113</v>
       </c>
       <c r="L19" t="n">
-        <v>0.236328377159314</v>
+        <v>0.248998040654021</v>
       </c>
       <c r="M19" t="n">
-        <v>0.816682376365562</v>
+        <v>0.807065526311106</v>
       </c>
       <c r="N19" t="n">
-        <v>0.00417427657557268</v>
+        <v>0.00451214939943672</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0214357505778808</v>
+        <v>0.0214460521573048</v>
       </c>
       <c r="P19" t="n">
-        <v>0.194734332273863</v>
+        <v>0.210395338328029</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.848511637085678</v>
+        <v>0.836514432084907</v>
       </c>
       <c r="R19"/>
       <c r="S19"/>
@@ -1859,52 +1859,52 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.0398756201146828</v>
+        <v>-0.041762316867948</v>
       </c>
       <c r="C20" t="n">
-        <v>0.013381297632415</v>
+        <v>0.0138477564357556</v>
       </c>
       <c r="D20" t="n">
-        <v>-2.9799516616451</v>
+        <v>-3.01581827075724</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0143324675837494</v>
+        <v>0.0134686173640854</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0572007436091115</v>
+        <v>-0.0573559354498858</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0156988817412053</v>
+        <v>0.0157670171711155</v>
       </c>
       <c r="H20" t="n">
-        <v>-3.64361898841336</v>
+        <v>-3.6377163053364</v>
       </c>
       <c r="I20" t="n">
-        <v>0.00476368108169759</v>
+        <v>0.00478527764074147</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.0321247928986757</v>
+        <v>-0.0326898485639072</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0311421272455132</v>
+        <v>0.0311960864008848</v>
       </c>
       <c r="L20" t="n">
-        <v>-1.03155422381444</v>
+        <v>-1.04788299865011</v>
       </c>
       <c r="M20" t="n">
-        <v>0.327507422612758</v>
+        <v>0.320214321289496</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.0328052478222038</v>
+        <v>-0.0335417365911751</v>
       </c>
       <c r="O20" t="n">
-        <v>0.031769068050392</v>
+        <v>0.0318686712835715</v>
       </c>
       <c r="P20" t="n">
-        <v>-1.03261599522429</v>
+        <v>-1.05249874689523</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.327052091946731</v>
+        <v>0.318212111323938</v>
       </c>
       <c r="R20"/>
       <c r="S20"/>
@@ -1920,52 +1920,52 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>0.115942086294194</v>
+        <v>0.11577415143897</v>
       </c>
       <c r="C21" t="n">
-        <v>0.00975458386403355</v>
+        <v>0.0102334321039796</v>
       </c>
       <c r="D21" t="n">
-        <v>11.8859079905692</v>
+        <v>11.3133257994596</v>
       </c>
       <c r="E21" t="n">
-        <v>0.000000016597178204601</v>
+        <v>0.0000000300700365846964</v>
       </c>
       <c r="F21" t="n">
-        <v>0.121046153035087</v>
+        <v>0.121048142764707</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0119544140358936</v>
+        <v>0.0119034090629956</v>
       </c>
       <c r="H21" t="n">
-        <v>10.1256450271541</v>
+        <v>10.1691996069439</v>
       </c>
       <c r="I21" t="n">
-        <v>0.000000116834383102789</v>
+        <v>0.000000110217011273642</v>
       </c>
       <c r="J21" t="n">
-        <v>0.155340937952926</v>
+        <v>0.155354198090024</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0214608819996194</v>
+        <v>0.0214399043013947</v>
       </c>
       <c r="L21" t="n">
-        <v>7.23832962483466</v>
+        <v>7.24603038829413</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0000054494353170709</v>
+        <v>0.0000053610438248638</v>
       </c>
       <c r="N21" t="n">
-        <v>0.153042320440736</v>
+        <v>0.153009245924856</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0221123882435409</v>
+        <v>0.0221460657769338</v>
       </c>
       <c r="P21" t="n">
-        <v>6.92111221796406</v>
+        <v>6.90909380772373</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.00000851114105055988</v>
+        <v>0.0000086453926066992</v>
       </c>
       <c r="R21"/>
       <c r="S21"/>
@@ -1981,52 +1981,52 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0590103141608868</v>
+        <v>0.0577360561571702</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00377898127250695</v>
+        <v>0.00394832410962015</v>
       </c>
       <c r="D22" t="n">
-        <v>15.6154026457347</v>
+        <v>14.6229272355062</v>
       </c>
       <c r="E22" t="n">
-        <v>0.00000000016756042235988</v>
+        <v>0.000000000410926547627411</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0615774089228772</v>
+        <v>0.0616329489867251</v>
       </c>
       <c r="G22" t="n">
-        <v>0.00405919519441673</v>
+        <v>0.00409549129126832</v>
       </c>
       <c r="H22" t="n">
-        <v>15.1698565783618</v>
+        <v>15.0489757158385</v>
       </c>
       <c r="I22" t="n">
-        <v>0.00000000025087134052168</v>
+        <v>0.000000000277294724975275</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0758992243333982</v>
+        <v>0.075996665710192</v>
       </c>
       <c r="K22" t="n">
-        <v>0.00942351587055429</v>
+        <v>0.00955798497183387</v>
       </c>
       <c r="L22" t="n">
-        <v>8.05423637801268</v>
+        <v>7.95111793271744</v>
       </c>
       <c r="M22" t="n">
-        <v>0.00000096902752525412</v>
+        <v>0.00000112587264449797</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0737480573993949</v>
+        <v>0.0737647118759225</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0108565741310855</v>
+        <v>0.0109665593820683</v>
       </c>
       <c r="P22" t="n">
-        <v>6.79294006644628</v>
+        <v>6.72633132288845</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.00000678324169232129</v>
+        <v>0.0000075632076282477</v>
       </c>
       <c r="R22"/>
       <c r="S22"/>
@@ -2042,52 +2042,52 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.0528039155127549</v>
+        <v>-0.0514498373138655</v>
       </c>
       <c r="C23" t="n">
-        <v>0.00947836307881041</v>
+        <v>0.0103888576035122</v>
       </c>
       <c r="D23" t="n">
-        <v>-5.57099523131816</v>
+        <v>-4.95240567129073</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0000379851747038805</v>
+        <v>0.000132548808811114</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.0472562894316243</v>
+        <v>-0.0469832341811481</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0125796008820936</v>
+        <v>0.0125246691006162</v>
       </c>
       <c r="H23" t="n">
-        <v>-3.75658098174571</v>
+        <v>-3.75125552649024</v>
       </c>
       <c r="I23" t="n">
-        <v>0.00164929934294665</v>
+        <v>0.00166769958827268</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.0418286094306154</v>
+        <v>-0.041738379093849</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0167352320129667</v>
+        <v>0.0166497487323403</v>
       </c>
       <c r="L23" t="n">
-        <v>-2.49943409199264</v>
+        <v>-2.50684738639789</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0233492214547435</v>
+        <v>0.0229983657204752</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.0414295817989764</v>
+        <v>-0.0413944743119637</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0176105169650121</v>
+        <v>0.0175252562548202</v>
       </c>
       <c r="P23" t="n">
-        <v>-2.35254773504305</v>
+        <v>-2.36198967422108</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.0313217768080404</v>
+        <v>0.0307339147317977</v>
       </c>
       <c r="R23"/>
       <c r="S23"/>
@@ -2103,40 +2103,40 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0177050130339359</v>
+        <v>0.017638069103763</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0143746742634941</v>
+        <v>0.0140365350653062</v>
       </c>
       <c r="D24" t="n">
-        <v>1.2316809904277</v>
+        <v>1.25658284054436</v>
       </c>
       <c r="E24" t="n">
-        <v>0.239656963548634</v>
+        <v>0.230802335905357</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0231268940046531</v>
+        <v>0.02325004555488</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0141646721759051</v>
+        <v>0.0142835470283181</v>
       </c>
       <c r="H24" t="n">
-        <v>1.63271650183287</v>
+        <v>1.62775013158742</v>
       </c>
       <c r="I24" t="n">
-        <v>0.126274257970435</v>
+        <v>0.127336866278711</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0329391642492702</v>
+        <v>0.0330758878749055</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0177231924227274</v>
+        <v>0.017750916072417</v>
       </c>
       <c r="L24" t="n">
-        <v>1.85853448202879</v>
+        <v>1.86333413667038</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0857113120678606</v>
+        <v>0.0849980457789947</v>
       </c>
       <c r="N24"/>
       <c r="O24"/>
@@ -2156,40 +2156,40 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.0483637475345123</v>
+        <v>-0.0510260354782551</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0226682407114585</v>
+        <v>0.0236075182116592</v>
       </c>
       <c r="D25" t="n">
-        <v>-2.13354658396869</v>
+        <v>-2.1614315838187</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0982739605071326</v>
+        <v>0.0951737491035058</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.0487838403215047</v>
+        <v>-0.0491186701553925</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0266786053278009</v>
+        <v>0.0263847142711355</v>
       </c>
       <c r="H25" t="n">
-        <v>-1.82857535924746</v>
+        <v>-1.86163358263567</v>
       </c>
       <c r="I25" t="n">
-        <v>0.139830573968411</v>
+        <v>0.134489686022971</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.0734319700402183</v>
+        <v>-0.0743648864616948</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0322431379263807</v>
+        <v>0.0326418052344613</v>
       </c>
       <c r="L25" t="n">
-        <v>-2.27744490030351</v>
+        <v>-2.27820998034707</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0834874614833622</v>
+        <v>0.0833956749402997</v>
       </c>
       <c r="N25"/>
       <c r="O25"/>
@@ -2209,40 +2209,40 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.0223175287061931</v>
+        <v>-0.0322778465844018</v>
       </c>
       <c r="C26" t="n">
-        <v>0.016922999296748</v>
+        <v>0.0178408318018843</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.31876910911896</v>
+        <v>-1.8092119774927</v>
       </c>
       <c r="E26" t="n">
-        <v>0.206430796286531</v>
+        <v>0.0899141594759111</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.0388409451947118</v>
+        <v>-0.0379281243004313</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0222181691540172</v>
+        <v>0.0223756843484251</v>
       </c>
       <c r="H26" t="n">
-        <v>-1.74816137754038</v>
+        <v>-1.69505985648661</v>
       </c>
       <c r="I26" t="n">
-        <v>0.100237339167466</v>
+        <v>0.110086368126741</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.0401937051687796</v>
+        <v>-0.0391233857175231</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0244994300548748</v>
+        <v>0.0245699155846048</v>
       </c>
       <c r="L26" t="n">
-        <v>-1.64059755997393</v>
+        <v>-1.59232886180681</v>
       </c>
       <c r="M26" t="n">
-        <v>0.121062291730333</v>
+        <v>0.131549406315185</v>
       </c>
       <c r="N26"/>
       <c r="O26"/>
@@ -2262,40 +2262,40 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0791522245682526</v>
+        <v>0.0745048173486095</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0167665442370032</v>
+        <v>0.0170085874786138</v>
       </c>
       <c r="D27" t="n">
-        <v>4.72084309380618</v>
+        <v>4.38042356205593</v>
       </c>
       <c r="E27" t="n">
-        <v>0.000529206529153808</v>
+        <v>0.000955963813882575</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0909697924594779</v>
+        <v>0.092161472133081</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0201004518981418</v>
+        <v>0.0202247053828446</v>
       </c>
       <c r="H27" t="n">
-        <v>4.52575857102436</v>
+        <v>4.55687587969791</v>
       </c>
       <c r="I27" t="n">
-        <v>0.000737511571982384</v>
+        <v>0.000704073090125881</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0778152018291907</v>
+        <v>0.0791932623735231</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0386662361924574</v>
+        <v>0.0392216121304952</v>
       </c>
       <c r="L27" t="n">
-        <v>2.01248452116914</v>
+        <v>2.01912308219349</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0683799400105027</v>
+        <v>0.0676502923465847</v>
       </c>
       <c r="N27"/>
       <c r="O27"/>
@@ -2315,40 +2315,40 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0211281633018039</v>
+        <v>0.00756848675557087</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0856812009381743</v>
+        <v>0.0921055653661965</v>
       </c>
       <c r="D28" t="n">
-        <v>0.246590419724036</v>
+        <v>0.0821718723019594</v>
       </c>
       <c r="E28" t="n">
-        <v>0.824042674972414</v>
+        <v>0.940613395171756</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.0201685572900367</v>
+        <v>-0.0199974149904468</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0956074353567702</v>
+        <v>0.0955373739610934</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.210951765569021</v>
+        <v>-0.209315100063254</v>
       </c>
       <c r="I28" t="n">
-        <v>0.849204300814196</v>
+        <v>0.850343492362971</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.0522783818708361</v>
+        <v>-0.0521933912971322</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0614414459720225</v>
+        <v>0.0614570151071333</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.850865096740092</v>
+        <v>-0.849266616775114</v>
       </c>
       <c r="M28" t="n">
-        <v>0.489303987572661</v>
+        <v>0.490001637835934</v>
       </c>
       <c r="N28"/>
       <c r="O28"/>
@@ -2368,40 +2368,40 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>0.15029080136543</v>
+        <v>0.183886873357202</v>
       </c>
       <c r="C29" t="n">
-        <v>0.103614577947901</v>
+        <v>0.074459109480433</v>
       </c>
       <c r="D29" t="n">
-        <v>1.45047930843282</v>
+        <v>2.46963567843268</v>
       </c>
       <c r="E29" t="n">
-        <v>0.383021192804281</v>
+        <v>0.243641327478324</v>
       </c>
       <c r="F29" t="n">
-        <v>0.232401174482052</v>
+        <v>0.232316807717392</v>
       </c>
       <c r="G29" t="n">
-        <v>0.103195133751555</v>
+        <v>0.103323291803012</v>
       </c>
       <c r="H29" t="n">
-        <v>2.25205555759599</v>
+        <v>2.24844566663932</v>
       </c>
       <c r="I29" t="n">
-        <v>0.264855793057326</v>
+        <v>0.265234869239002</v>
       </c>
       <c r="J29" t="n">
-        <v>0.311324185209632</v>
+        <v>0.311249986796219</v>
       </c>
       <c r="K29" t="n">
-        <v>0.105105974548816</v>
+        <v>0.105239400041522</v>
       </c>
       <c r="L29" t="n">
-        <v>2.96200274576246</v>
+        <v>2.95754239071503</v>
       </c>
       <c r="M29" t="n">
-        <v>0.206200198867794</v>
+        <v>0.20649101423631</v>
       </c>
       <c r="N29"/>
       <c r="O29"/>
@@ -2421,40 +2421,40 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.0822719524648342</v>
+        <v>-0.0796103158682405</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0414189331139304</v>
+        <v>0.037869290498622</v>
       </c>
       <c r="D30" t="n">
-        <v>-1.98633683389502</v>
+        <v>-2.1022394351734</v>
       </c>
       <c r="E30" t="n">
-        <v>0.143686470339953</v>
+        <v>0.12869421003504</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.0439631551624554</v>
+        <v>-0.043795602701385</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0431591082091249</v>
+        <v>0.0431501097511999</v>
       </c>
       <c r="H30" t="n">
-        <v>-1.01862983241995</v>
+        <v>-1.01495924237289</v>
       </c>
       <c r="I30" t="n">
-        <v>0.385836129391775</v>
+        <v>0.387328403495963</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.0534471062877758</v>
+        <v>-0.0533325184082816</v>
       </c>
       <c r="K30" t="n">
-        <v>0.059319822392296</v>
+        <v>0.0593493531768909</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.90099909494532</v>
+        <v>-0.898620044759778</v>
       </c>
       <c r="M30" t="n">
-        <v>0.438312964753379</v>
+        <v>0.439365664585912</v>
       </c>
       <c r="N30"/>
       <c r="O30"/>
@@ -2474,40 +2474,40 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>0.00402272841169277</v>
+        <v>-0.00461577983819935</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0295767143683899</v>
+        <v>0.0310213650245107</v>
       </c>
       <c r="D31" t="n">
-        <v>0.136009982771854</v>
+        <v>-0.148793576122531</v>
       </c>
       <c r="E31" t="n">
-        <v>0.89497892912408</v>
+        <v>0.885165807360103</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0121206701699616</v>
+        <v>0.0124157720385016</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0287256744297433</v>
+        <v>0.0286995495271668</v>
       </c>
       <c r="H31" t="n">
-        <v>0.421945538636737</v>
+        <v>0.43261208775242</v>
       </c>
       <c r="I31" t="n">
-        <v>0.683706133752622</v>
+        <v>0.676237707375935</v>
       </c>
       <c r="J31" t="n">
-        <v>0.00237065431689906</v>
+        <v>0.00228695424181183</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0464497988952019</v>
+        <v>0.0466062666289534</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0510369123932619</v>
+        <v>0.0490696725403681</v>
       </c>
       <c r="M31" t="n">
-        <v>0.960518475272843</v>
+        <v>0.962038521155174</v>
       </c>
       <c r="N31"/>
       <c r="O31"/>
@@ -2527,40 +2527,40 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0418705881688802</v>
+        <v>-0.00170123039112597</v>
       </c>
       <c r="C32" t="n">
-        <v>0.143846602818202</v>
+        <v>0.143564036529606</v>
       </c>
       <c r="D32" t="n">
-        <v>0.291078046673077</v>
+        <v>-0.0118499760263786</v>
       </c>
       <c r="E32" t="n">
-        <v>0.780429108366675</v>
+        <v>0.990915504729735</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.0258248604352349</v>
+        <v>-0.0251874308179015</v>
       </c>
       <c r="G32" t="n">
-        <v>0.145468471775887</v>
+        <v>0.145568043385861</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.177528918259494</v>
+        <v>-0.173028572975571</v>
       </c>
       <c r="I32" t="n">
-        <v>0.864741631926056</v>
+        <v>0.868130395666683</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.0348070122405212</v>
+        <v>-0.0342009393999747</v>
       </c>
       <c r="K32" t="n">
-        <v>0.143795611756914</v>
+        <v>0.143914288060983</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.242058932225013</v>
+        <v>-0.237647976867191</v>
       </c>
       <c r="M32" t="n">
-        <v>0.816535628325858</v>
+        <v>0.8198060305358</v>
       </c>
       <c r="N32"/>
       <c r="O32"/>
@@ -2580,40 +2580,40 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0414201902953909</v>
+        <v>0.0282713124158277</v>
       </c>
       <c r="C33" t="n">
-        <v>0.045410586540463</v>
+        <v>0.0428983687554898</v>
       </c>
       <c r="D33" t="n">
-        <v>0.912126300295275</v>
+        <v>0.659030010604069</v>
       </c>
       <c r="E33" t="n">
-        <v>0.411309149321659</v>
+        <v>0.544278343693593</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0383120032224805</v>
+        <v>0.0382825511151993</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0510008540967012</v>
+        <v>0.0512127538900213</v>
       </c>
       <c r="H33" t="n">
-        <v>0.751203169065331</v>
+        <v>0.747519869706882</v>
       </c>
       <c r="I33" t="n">
-        <v>0.492767979462049</v>
+        <v>0.494455934124203</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.0925570850662144</v>
+        <v>-0.0934622904521098</v>
       </c>
       <c r="K33" t="n">
-        <v>0.103944939089857</v>
+        <v>0.103948097344253</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.890443400868245</v>
+        <v>-0.899124590444245</v>
       </c>
       <c r="M33" t="n">
-        <v>0.431185071652985</v>
+        <v>0.426616860899428</v>
       </c>
       <c r="N33"/>
       <c r="O33"/>
@@ -2633,40 +2633,40 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>0.370233134363936</v>
+        <v>0.367422067934338</v>
       </c>
       <c r="C34" t="n">
-        <v>0.276081028552061</v>
+        <v>0.276370301530084</v>
       </c>
       <c r="D34" t="n">
-        <v>1.34103069778342</v>
+        <v>1.32945568282901</v>
       </c>
       <c r="E34" t="n">
-        <v>0.406644652960931</v>
+        <v>0.409263366149457</v>
       </c>
       <c r="F34" t="n">
-        <v>0.514495791605297</v>
+        <v>0.51533197097058</v>
       </c>
       <c r="G34" t="n">
-        <v>0.201528871929766</v>
+        <v>0.202166315364809</v>
       </c>
       <c r="H34" t="n">
-        <v>2.55296318923773</v>
+        <v>2.54904962797915</v>
       </c>
       <c r="I34" t="n">
-        <v>0.236347151099056</v>
+        <v>0.236677680044351</v>
       </c>
       <c r="J34" t="n">
-        <v>0.359151856570198</v>
+        <v>0.359823595973031</v>
       </c>
       <c r="K34" t="n">
-        <v>0.239662799101724</v>
+        <v>0.240566176230322</v>
       </c>
       <c r="L34" t="n">
-        <v>1.498571567704</v>
+        <v>1.49573643980827</v>
       </c>
       <c r="M34" t="n">
-        <v>0.373632471589376</v>
+        <v>0.374189284893717</v>
       </c>
       <c r="N34"/>
       <c r="O34"/>
@@ -2686,40 +2686,40 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0428057944503858</v>
+        <v>0.0345288396770714</v>
       </c>
       <c r="C35" t="n">
-        <v>0.050906269357805</v>
+        <v>0.0500805883818468</v>
       </c>
       <c r="D35" t="n">
-        <v>0.840874709350957</v>
+        <v>0.689465535304841</v>
       </c>
       <c r="E35" t="n">
-        <v>0.416106109747208</v>
+        <v>0.503043997468755</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0437952562157704</v>
+        <v>0.0437794940241693</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0544793346847594</v>
+        <v>0.054510073773881</v>
       </c>
       <c r="H35" t="n">
-        <v>0.803887500998101</v>
+        <v>0.803145015098965</v>
       </c>
       <c r="I35" t="n">
-        <v>0.436384434036866</v>
+        <v>0.43679789375273</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0770508417603133</v>
+        <v>0.0770598656748405</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0677646933687784</v>
+        <v>0.067848595533249</v>
       </c>
       <c r="L35" t="n">
-        <v>1.13703520122196</v>
+        <v>1.13576213434039</v>
       </c>
       <c r="M35" t="n">
-        <v>0.276736614882984</v>
+        <v>0.277249495827729</v>
       </c>
       <c r="N35"/>
       <c r="O35"/>
@@ -2739,40 +2739,40 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>0.103102217966687</v>
+        <v>0.0990418747432844</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0521494070101464</v>
+        <v>0.0520532359436711</v>
       </c>
       <c r="D36" t="n">
-        <v>1.9770544648116</v>
+        <v>1.90270351012301</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0713994453755977</v>
+        <v>0.0812758660530308</v>
       </c>
       <c r="F36" t="n">
-        <v>0.108285830876573</v>
+        <v>0.108196806329356</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0560726780041551</v>
+        <v>0.056113338632084</v>
       </c>
       <c r="H36" t="n">
-        <v>1.93116923840428</v>
+        <v>1.92818336899833</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0773631211248103</v>
+        <v>0.0777657539655605</v>
       </c>
       <c r="J36" t="n">
-        <v>0.117329949137225</v>
+        <v>0.117229949267727</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0654462957990902</v>
+        <v>0.0654897384700111</v>
       </c>
       <c r="L36" t="n">
-        <v>1.79276684348049</v>
+        <v>1.79005065536196</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0981937952897655</v>
+        <v>0.0986485999757591</v>
       </c>
       <c r="N36"/>
       <c r="O36"/>
@@ -2792,40 +2792,40 @@
         <v>60</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0992212533300599</v>
+        <v>0.0969851657932199</v>
       </c>
       <c r="C37" t="n">
-        <v>0.054904909149992</v>
+        <v>0.0545417064095731</v>
       </c>
       <c r="D37" t="n">
-        <v>1.8071472089864</v>
+        <v>1.77818356222528</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0955559181903618</v>
+        <v>0.100394514642629</v>
       </c>
       <c r="F37" t="n">
-        <v>0.106632720617034</v>
+        <v>0.106764401489971</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0582892306081937</v>
+        <v>0.0582943174374786</v>
       </c>
       <c r="H37" t="n">
-        <v>1.82937258743032</v>
+        <v>1.83147185151413</v>
       </c>
       <c r="I37" t="n">
-        <v>0.09199038847764</v>
+        <v>0.091658958870339</v>
       </c>
       <c r="J37" t="n">
-        <v>0.119511929607014</v>
+        <v>0.119713058435746</v>
       </c>
       <c r="K37" t="n">
-        <v>0.070710781667954</v>
+        <v>0.0707387459030782</v>
       </c>
       <c r="L37" t="n">
-        <v>1.69015144208449</v>
+        <v>1.69232655890973</v>
       </c>
       <c r="M37" t="n">
-        <v>0.116506228447379</v>
+        <v>0.116082232641539</v>
       </c>
       <c r="N37"/>
       <c r="O37"/>
@@ -2845,40 +2845,40 @@
         <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>0.128774939402427</v>
+        <v>0.126372154638661</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0544332990837454</v>
+        <v>0.0545574480392631</v>
       </c>
       <c r="D38" t="n">
-        <v>2.36573828097958</v>
+        <v>2.31631352235749</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0354752571563834</v>
+        <v>0.0388221364750582</v>
       </c>
       <c r="F38" t="n">
-        <v>0.137741852536639</v>
+        <v>0.137807936105267</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0604073086252642</v>
+        <v>0.0604382570391196</v>
       </c>
       <c r="H38" t="n">
-        <v>2.28021833237297</v>
+        <v>2.28014411494475</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0414626954349062</v>
+        <v>0.0414679158056453</v>
       </c>
       <c r="J38" t="n">
-        <v>0.141666817017259</v>
+        <v>0.141684448629129</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0670937943226364</v>
+        <v>0.0671438609930936</v>
       </c>
       <c r="L38" t="n">
-        <v>2.11147421974707</v>
+        <v>2.1101623667978</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0561917499619504</v>
+        <v>0.0563229311475793</v>
       </c>
       <c r="N38"/>
       <c r="O38"/>
@@ -2898,40 +2898,40 @@
         <v>62</v>
       </c>
       <c r="B39" t="n">
-        <v>0.133377071736853</v>
+        <v>0.130461270682011</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0530115407561454</v>
+        <v>0.0527452257555584</v>
       </c>
       <c r="D39" t="n">
-        <v>2.51600066390055</v>
+        <v>2.4734233063409</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0265932598137754</v>
+        <v>0.0287749405175781</v>
       </c>
       <c r="F39" t="n">
-        <v>0.140833259062468</v>
+        <v>0.141048965631083</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0577748617611259</v>
+        <v>0.057756023792072</v>
       </c>
       <c r="H39" t="n">
-        <v>2.43762174013938</v>
+        <v>2.44215159511109</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0307519553786184</v>
+        <v>0.0304940558941469</v>
       </c>
       <c r="J39" t="n">
-        <v>0.143819711434479</v>
+        <v>0.144253118720616</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0634167361299642</v>
+        <v>0.0633923095378391</v>
       </c>
       <c r="L39" t="n">
-        <v>2.26785104707595</v>
+        <v>2.27556181139782</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0420032761322943</v>
+        <v>0.0414154313849115</v>
       </c>
       <c r="N39"/>
       <c r="O39"/>
@@ -2951,40 +2951,40 @@
         <v>63</v>
       </c>
       <c r="B40" t="n">
-        <v>0.000203695238853829</v>
+        <v>0.000174877102522595</v>
       </c>
       <c r="C40" t="n">
-        <v>0.000122070423615546</v>
+        <v>0.00012136643368154</v>
       </c>
       <c r="D40" t="n">
-        <v>1.66866987776954</v>
+        <v>1.44090171572039</v>
       </c>
       <c r="E40" t="n">
-        <v>0.149597482529368</v>
+        <v>0.203129263011463</v>
       </c>
       <c r="F40" t="n">
-        <v>0.000286069570129198</v>
+        <v>0.000286747795204165</v>
       </c>
       <c r="G40" t="n">
-        <v>0.000106587361493801</v>
+        <v>0.000107063958377147</v>
       </c>
       <c r="H40" t="n">
-        <v>2.68389766028533</v>
+        <v>2.67828501346885</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0402373174849451</v>
+        <v>0.0405200375800329</v>
       </c>
       <c r="J40" t="n">
-        <v>0.000214255111534607</v>
+        <v>0.000215112440756402</v>
       </c>
       <c r="K40" t="n">
-        <v>0.000240363055637693</v>
+        <v>0.000241066214541969</v>
       </c>
       <c r="L40" t="n">
-        <v>0.891381210669747</v>
+        <v>0.892337572749962</v>
       </c>
       <c r="M40" t="n">
-        <v>0.411990343041089</v>
+        <v>0.411516709583576</v>
       </c>
       <c r="N40"/>
       <c r="O40"/>
@@ -3004,40 +3004,40 @@
         <v>64</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.0053797691492446</v>
+        <v>-0.0064117834376623</v>
       </c>
       <c r="C41" t="n">
-        <v>0.00577221238401999</v>
+        <v>0.00552675965002173</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.932011643254528</v>
+        <v>-1.16013429996673</v>
       </c>
       <c r="E41" t="n">
-        <v>0.367449854461076</v>
+        <v>0.265777736809336</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.00612365740786394</v>
+        <v>-0.0061831696915018</v>
       </c>
       <c r="G41" t="n">
-        <v>0.00592808781501337</v>
+        <v>0.00592891373936915</v>
       </c>
       <c r="H41" t="n">
-        <v>-1.03299033330027</v>
+        <v>-1.04288407005221</v>
       </c>
       <c r="I41" t="n">
-        <v>0.319470996025952</v>
+        <v>0.315014407386103</v>
       </c>
       <c r="J41" t="n">
-        <v>-0.0177499799274393</v>
+        <v>-0.0178988956834741</v>
       </c>
       <c r="K41" t="n">
-        <v>0.0100395686915131</v>
+        <v>0.010072049521424</v>
       </c>
       <c r="L41" t="n">
-        <v>-1.76800223922411</v>
+        <v>-1.77708575056167</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0991892882721402</v>
+        <v>0.0976122379904143</v>
       </c>
       <c r="N41"/>
       <c r="O41"/>
@@ -3057,40 +3057,40 @@
         <v>65</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.052834994607133</v>
+        <v>-0.0521650875613689</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0129255968034765</v>
+        <v>0.0127583753983642</v>
       </c>
       <c r="D42" t="n">
-        <v>-4.08762515266781</v>
+        <v>-4.08869357834205</v>
       </c>
       <c r="E42" t="n">
-        <v>0.00106552184258939</v>
+        <v>0.00106353303152751</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.0607795474167049</v>
+        <v>-0.0602670087882172</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0137357313867999</v>
+        <v>0.0137695525653544</v>
       </c>
       <c r="H42" t="n">
-        <v>-4.42492253999045</v>
+        <v>-4.37683130967198</v>
       </c>
       <c r="I42" t="n">
-        <v>0.000550070662829251</v>
+        <v>0.000604128042881447</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.0702212266708186</v>
+        <v>-0.0696345024125535</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0168561802684683</v>
+        <v>0.0168352881284896</v>
       </c>
       <c r="L42" t="n">
-        <v>-4.1659038733809</v>
+        <v>-4.13622278876916</v>
       </c>
       <c r="M42" t="n">
-        <v>0.000912485521462635</v>
+        <v>0.000967548121285358</v>
       </c>
       <c r="N42"/>
       <c r="O42"/>
@@ -3110,28 +3110,28 @@
         <v>66</v>
       </c>
       <c r="B43" t="n">
-        <v>0.00140537685232912</v>
+        <v>0.0017665376282251</v>
       </c>
       <c r="C43" t="n">
-        <v>0.00941601451904823</v>
+        <v>0.00921813251526995</v>
       </c>
       <c r="D43" t="n">
-        <v>0.149253896060387</v>
+        <v>0.191637256819514</v>
       </c>
       <c r="E43" t="n">
-        <v>0.88469194034019</v>
+        <v>0.852328640159614</v>
       </c>
       <c r="F43" t="n">
-        <v>0.000147852153600525</v>
+        <v>0.000170769279010553</v>
       </c>
       <c r="G43" t="n">
-        <v>0.010668268774547</v>
+        <v>0.0106735133867652</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0138590578026381</v>
+        <v>0.0159993502441568</v>
       </c>
       <c r="I43" t="n">
-        <v>0.989251577931583</v>
+        <v>0.987591979976798</v>
       </c>
       <c r="J43"/>
       <c r="K43"/>
@@ -3155,28 +3155,28 @@
         <v>67</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.0605762641649387</v>
+        <v>-0.0629907305074948</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0307463621637734</v>
+        <v>0.031064060786943</v>
       </c>
       <c r="D44" t="n">
-        <v>-1.97019289118737</v>
+        <v>-2.02776871122952</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0710328883713966</v>
+        <v>0.0641794191805251</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.0840065716684078</v>
+        <v>-0.0842792969083762</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0400436065431474</v>
+        <v>0.0399471223007157</v>
       </c>
       <c r="H44" t="n">
-        <v>-2.09787726232625</v>
+        <v>-2.10977141917595</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0563602778882316</v>
+        <v>0.0551593975446553</v>
       </c>
       <c r="J44"/>
       <c r="K44"/>
@@ -3200,28 +3200,28 @@
         <v>68</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.00095836725804526</v>
+        <v>0.000430250977207265</v>
       </c>
       <c r="C45" t="n">
-        <v>0.00801277610779134</v>
+        <v>0.00836438465212012</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.119604896624202</v>
+        <v>0.0514384494618153</v>
       </c>
       <c r="E45" t="n">
-        <v>0.907145315024442</v>
+        <v>0.959993265798361</v>
       </c>
       <c r="F45" t="n">
-        <v>0.00190560158136669</v>
+        <v>0.00192585581715694</v>
       </c>
       <c r="G45" t="n">
-        <v>0.00967320818387375</v>
+        <v>0.00965754219937556</v>
       </c>
       <c r="H45" t="n">
-        <v>0.196997887892408</v>
+        <v>0.19941469344876</v>
       </c>
       <c r="I45" t="n">
-        <v>0.848340536607365</v>
+        <v>0.846508296485642</v>
       </c>
       <c r="J45"/>
       <c r="K45"/>
@@ -3245,28 +3245,28 @@
         <v>69</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.00442320666200047</v>
+        <v>-0.00505811968353797</v>
       </c>
       <c r="C46" t="n">
-        <v>0.00693329240426373</v>
+        <v>0.00705082847303121</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.637966265389349</v>
+        <v>-0.71737948283451</v>
       </c>
       <c r="E46" t="n">
-        <v>0.534960107382374</v>
+        <v>0.486039197571141</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.00719224043615729</v>
+        <v>-0.0072059819776725</v>
       </c>
       <c r="G46" t="n">
-        <v>0.00939178606670813</v>
+        <v>0.00937972589471813</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.765801135702211</v>
+        <v>-0.768250805892985</v>
       </c>
       <c r="I46" t="n">
-        <v>0.458977425617122</v>
+        <v>0.457606391861791</v>
       </c>
       <c r="J46"/>
       <c r="K46"/>
@@ -3290,28 +3290,28 @@
         <v>70</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0245799491404024</v>
+        <v>0.0232478115078648</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0125270165082815</v>
+        <v>0.0127290026355901</v>
       </c>
       <c r="D47" t="n">
-        <v>1.96215508490412</v>
+        <v>1.82636551923277</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0870129704277472</v>
+        <v>0.106707394707932</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0384542880143589</v>
+        <v>0.0385211021565709</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0154610183580873</v>
+        <v>0.0154578615851697</v>
       </c>
       <c r="H47" t="n">
-        <v>2.4871769196396</v>
+        <v>2.49200718639686</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0388407065683484</v>
+        <v>0.0383555284693895</v>
       </c>
       <c r="J47"/>
       <c r="K47"/>
@@ -3335,28 +3335,28 @@
         <v>71</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.00790854035986992</v>
+        <v>-0.00773552751076548</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0109276686854332</v>
+        <v>0.0111800618328358</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.723717069717916</v>
+        <v>-0.691903821859575</v>
       </c>
       <c r="E48" t="n">
-        <v>0.484237445346898</v>
+        <v>0.503191857362971</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.00598670692884911</v>
+        <v>-0.00601764884617403</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0144785389473728</v>
+        <v>0.0144726404866365</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.413488332670156</v>
+        <v>-0.415794813097894</v>
       </c>
       <c r="I48" t="n">
-        <v>0.686986505234916</v>
+        <v>0.685350906859023</v>
       </c>
       <c r="J48"/>
       <c r="K48"/>
@@ -3380,28 +3380,28 @@
         <v>72</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0147773956114181</v>
+        <v>0.0137415037919854</v>
       </c>
       <c r="C49" t="n">
-        <v>0.00748682842726076</v>
+        <v>0.00759092899649615</v>
       </c>
       <c r="D49" t="n">
-        <v>1.97378579661465</v>
+        <v>1.8102532375587</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0704636961488154</v>
+        <v>0.0938386367872621</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0134703173250818</v>
+        <v>0.0134969180729868</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0107032406020957</v>
+        <v>0.0106992498260969</v>
       </c>
       <c r="H49" t="n">
-        <v>1.258527003723</v>
+        <v>1.26148265461248</v>
       </c>
       <c r="I49" t="n">
-        <v>0.230474924455168</v>
+        <v>0.229441301339555</v>
       </c>
       <c r="J49"/>
       <c r="K49"/>
@@ -3425,28 +3425,28 @@
         <v>73</v>
       </c>
       <c r="B50" t="n">
-        <v>0.00000219604515501477</v>
+        <v>0.00000248188625576596</v>
       </c>
       <c r="C50" t="n">
-        <v>0.00000582484965607801</v>
+        <v>0.00000581255932920163</v>
       </c>
       <c r="D50" t="n">
-        <v>0.377013190842322</v>
+        <v>0.426986825458666</v>
       </c>
       <c r="E50" t="n">
-        <v>0.714033962143145</v>
+        <v>0.678247918652044</v>
       </c>
       <c r="F50" t="n">
-        <v>0.00000542593411049608</v>
+        <v>0.00000544851607078409</v>
       </c>
       <c r="G50" t="n">
-        <v>0.00000723175395806993</v>
+        <v>0.00000721908008253084</v>
       </c>
       <c r="H50" t="n">
-        <v>0.750292963775581</v>
+        <v>0.754738278076279</v>
       </c>
       <c r="I50" t="n">
-        <v>0.47418911640074</v>
+        <v>0.471678820386688</v>
       </c>
       <c r="J50"/>
       <c r="K50"/>
@@ -3470,28 +3470,28 @@
         <v>74</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0000122359890286726</v>
+        <v>0.0000125375690825526</v>
       </c>
       <c r="C51" t="n">
-        <v>0.00000288631128452267</v>
+        <v>0.00000293026186564244</v>
       </c>
       <c r="D51" t="n">
-        <v>4.23931718463144</v>
+        <v>4.27865141663843</v>
       </c>
       <c r="E51" t="n">
-        <v>0.000947609810249386</v>
+        <v>0.000861180230627591</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0000156790398661681</v>
+        <v>0.0000156976832329385</v>
       </c>
       <c r="G51" t="n">
-        <v>0.00000356646145961733</v>
+        <v>0.00000356583851448841</v>
       </c>
       <c r="H51" t="n">
-        <v>4.39624542244468</v>
+        <v>4.40224176421815</v>
       </c>
       <c r="I51" t="n">
-        <v>0.000847151407576287</v>
+        <v>0.000839064815165654</v>
       </c>
       <c r="J51"/>
       <c r="K51"/>
@@ -3515,16 +3515,16 @@
         <v>75</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.317978506015565</v>
+        <v>-0.297615829657174</v>
       </c>
       <c r="C52" t="n">
-        <v>0.298415018173106</v>
+        <v>0.235701890765154</v>
       </c>
       <c r="D52" t="n">
-        <v>-1.06555798686751</v>
+        <v>-1.26267900817864</v>
       </c>
       <c r="E52" t="n">
-        <v>0.334438194505825</v>
+        <v>0.269925667702947</v>
       </c>
       <c r="F52"/>
       <c r="G52"/>
@@ -3552,16 +3552,16 @@
         <v>76</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.223803199175344</v>
+        <v>-0.200166291648602</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0658359564589026</v>
+        <v>0.0615263897441867</v>
       </c>
       <c r="D53" t="n">
-        <v>-3.39940681677573</v>
+        <v>-3.25334043620712</v>
       </c>
       <c r="E53" t="n">
-        <v>0.00557604765370102</v>
+        <v>0.00749130021757298</v>
       </c>
       <c r="F53"/>
       <c r="G53"/>
@@ -3589,16 +3589,16 @@
         <v>77</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.618121979406605</v>
+        <v>-0.642044266220443</v>
       </c>
       <c r="C54" t="n">
-        <v>0.133127911815422</v>
+        <v>0.150066990045795</v>
       </c>
       <c r="D54" t="n">
-        <v>-4.64306824149403</v>
+        <v>-4.27838438036582</v>
       </c>
       <c r="E54" t="n">
-        <v>0.000525102666861714</v>
+        <v>0.000917448531989199</v>
       </c>
       <c r="F54"/>
       <c r="G54"/>
@@ -3626,16 +3626,16 @@
         <v>78</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0947328400448734</v>
+        <v>0.0858712383858413</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0424594242782451</v>
+        <v>0.0469130596849171</v>
       </c>
       <c r="D55" t="n">
-        <v>2.23113811963323</v>
+        <v>1.83043355011546</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0432402257341579</v>
+        <v>0.0866335071430784</v>
       </c>
       <c r="F55"/>
       <c r="G55"/>
@@ -3663,16 +3663,16 @@
         <v>79</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.703906596131547</v>
+        <v>-0.722804042790261</v>
       </c>
       <c r="C56" t="n">
-        <v>0.122537178825807</v>
+        <v>0.110936115398958</v>
       </c>
       <c r="D56" t="n">
-        <v>-5.74443285602475</v>
+        <v>-6.51549804309313</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0000746322507969715</v>
+        <v>0.0000177122054161709</v>
       </c>
       <c r="F56"/>
       <c r="G56"/>
